--- a/MyTeam/Content/templates/WeekReportT.xlsx
+++ b/MyTeam/Content/templates/WeekReportT.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS Projects\MyTeam\MyTeam\Content\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="225" yWindow="75" windowWidth="19275" windowHeight="8820"/>
   </bookViews>
@@ -332,71 +337,80 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -409,30 +423,13 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -453,7 +450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -495,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,7 +527,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,217 +736,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -964,207 +949,195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/MyTeam/Content/templates/WeekReportT.xlsx
+++ b/MyTeam/Content/templates/WeekReportT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>填报单位：零售团队</t>
   </si>
@@ -62,15 +62,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>需求中心月例会</t>
-  </si>
-  <si>
-    <t>各团队</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
     <t>二、重点工作进展</t>
   </si>
   <si>
@@ -108,35 +99,6 @@
   </si>
   <si>
     <t>计划完成率</t>
-  </si>
-  <si>
-    <r>
-      <t>界面原型工具的应用方面，各团队明年应</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>认真</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>选择合适项目使用原型工具进行需求开发</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -288,68 +250,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,146 +596,134 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="7.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>42339</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="F4" s="11"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -790,92 +740,92 @@
       <c r="J8" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
+      <c r="B11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -892,48 +842,48 @@
       <c r="J16" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+      <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="H19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="9" t="s">
         <v>11</v>
       </c>
     </row>

--- a/MyTeam/Content/templates/WeekReportT.xlsx
+++ b/MyTeam/Content/templates/WeekReportT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZM\Documents\GitHub\MyTeam\MyTeam\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Projects\MyTeam\MyTeam\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,23 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>填报单位：零售团队</t>
   </si>
   <si>
-    <t>一、年度重点任务跟踪</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
-    <t>任务时间</t>
-  </si>
-  <si>
-    <t>任务来源</t>
-  </si>
-  <si>
     <t>工作内容</t>
   </si>
   <si>
@@ -62,27 +53,18 @@
     <t>备注</t>
   </si>
   <si>
-    <t>二、重点工作进展</t>
-  </si>
-  <si>
     <t>工作类型</t>
   </si>
   <si>
     <t>工作任务/项目名称</t>
   </si>
   <si>
-    <t>三、风险提示/待协调事项</t>
-  </si>
-  <si>
     <t>风险提示/待协调事项</t>
   </si>
   <si>
     <t>解决建议</t>
   </si>
   <si>
-    <t>四、本周工作</t>
-  </si>
-  <si>
     <t>优先级</t>
   </si>
   <si>
@@ -92,13 +74,26 @@
     <t>本周完成率</t>
   </si>
   <si>
-    <t>五、下周计划</t>
-  </si>
-  <si>
     <t>下周计划</t>
   </si>
   <si>
     <t>计划完成率</t>
+  </si>
+  <si>
+    <t>一、重点工作进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、风险提示/待协调事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、本周工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、下周计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -125,27 +120,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -243,75 +235,69 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,322 +579,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="7.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="C11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="D11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="H15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A18:J18"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/MyTeam/Content/templates/WeekReportT.xlsx
+++ b/MyTeam/Content/templates/WeekReportT.xlsx
@@ -74,9 +74,6 @@
     <t>本周完成率</t>
   </si>
   <si>
-    <t>下周计划</t>
-  </si>
-  <si>
     <t>计划完成率</t>
   </si>
   <si>
@@ -93,13 +90,17 @@
   </si>
   <si>
     <t>四、下周计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周交付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,59 +246,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,7 +318,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,245 +588,245 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19" style="5" customWidth="1"/>
-    <col min="4" max="4" width="45.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="E15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="20" t="s">
+      <c r="H15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J15" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
